--- a/experiment result/128_0.4_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.4_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04835160806805379</v>
+        <v>0.006771253053127262</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0688138551489373</v>
+        <v>0.02725025049552038</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1003768971745463</v>
+        <v>0.03119944955155204</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06921904520451036</v>
+        <v>0.02582339179170988</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05124704838299558</v>
+        <v>0.01560347048166175</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08391546292330279</v>
+        <v>0.02280191657731432</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08570677682704761</v>
+        <v>0.02029531671663225</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06265071763605931</v>
+        <v>0.01486970065995079</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07264750919809906</v>
+        <v>0.01746340097149906</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08446074092209953</v>
+        <v>0.05545342791781047</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07224494752291571</v>
+        <v>0.009455391378810808</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1132086938251593</v>
+        <v>0.05162803282904697</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07119911603493155</v>
+        <v>0.01150728118836271</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06627154748525538</v>
+        <v>0.007839474469443596</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1168326652539482</v>
+        <v>0.03551884994161294</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1020518306443372</v>
+        <v>0.01188111363787421</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07925306199084216</v>
+        <v>0.01318386462702375</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04139531425671014</v>
+        <v>0.002629050092785732</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07073149752782357</v>
+        <v>0.0323868572465074</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07554851943873517</v>
+        <v>0.02757265734251409</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05041501435770109</v>
+        <v>0.004655867807709639</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06101125556679955</v>
+        <v>0.004945938110026171</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08214539672848617</v>
+        <v>0.04334151131414162</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0280966704604482</v>
+        <v>0.004233758134382243</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0501399645932895</v>
+        <v>0.00128717781297325</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06951025547380123</v>
+        <v>0.02179886619791973</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07953375374443215</v>
+        <v>0.0107371502034237</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07391056280219553</v>
+        <v>0.03374082330696065</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07646721982934121</v>
+        <v>0.01596551943545181</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09444381331156924</v>
+        <v>0.01863182514099392</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02736943720431616</v>
+        <v>0.0007270021147646146</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06159801793681021</v>
+        <v>0.01065603857306021</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1119744874212028</v>
+        <v>0.03152749429550455</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06485199199949834</v>
+        <v>0.03681574840132726</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07804457273049646</v>
+        <v>0.03541790873882814</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08867338130264499</v>
+        <v>0.03057861879728582</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06211790981851881</v>
+        <v>0.0123480789662436</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09010163890679218</v>
+        <v>0.01228369177785348</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06293878078470469</v>
+        <v>0.02681857734995469</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06557623606708035</v>
+        <v>0.05986732094354476</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1160910133483235</v>
+        <v>0.05967670267569784</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0460320502643659</v>
+        <v>0.01369138431061873</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08842144435218616</v>
+        <v>0.04505490932803705</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07025213039584657</v>
+        <v>0.03701686117384542</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121357987225094</v>
+        <v>0.04294588488120722</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.102813107840873</v>
+        <v>0.02072664206832392</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1301849216078105</v>
+        <v>0.07127649782846326</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05864502611227383</v>
+        <v>0.01460641113568617</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08526846496732023</v>
+        <v>0.005112565663444682</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03940947755455348</v>
+        <v>0.0041810142778034</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09213231564141496</v>
+        <v>0.02894396261231915</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09519430461555126</v>
+        <v>0.02618553192272115</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02780433100678395</v>
+        <v>0.003607610041992585</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03177033811006854</v>
+        <v>0.001491045353037272</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05864193145101661</v>
+        <v>0.01648411550354292</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1247350382380502</v>
+        <v>0.0328983284772251</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04799699940194943</v>
+        <v>0.01089123078387947</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07635290772099264</v>
+        <v>0.02238961180168889</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06759234501271957</v>
+        <v>0.017898989160055</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.05193859925063417</v>
+        <v>0.01230161495331015</v>
       </c>
     </row>
   </sheetData>
